--- a/Sets-MANU2025.xlsx
+++ b/Sets-MANU2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A263B-045B-4A56-A66F-04085E6200A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7CB0C4-BCF1-43A8-B09D-E076EB4E9BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -340,7 +340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +373,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +382,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -694,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,21 +1629,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="3"/>
